--- a/biology/Botanique/Iberis_carnosa/Iberis_carnosa.xlsx
+++ b/biology/Botanique/Iberis_carnosa/Iberis_carnosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibéris charnu, Ibéris de Pruiti
 Iberis carnosa, de noms communs Ibéris charnu ou Ibéris de Pruiti, est une espèce de plantes à fleurs vivace de la famille des Brassicaceae et du genre Iberis.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Ibéris charnu est une plante vivace, plus ou moins ciliée ; les tiges, de 4 à 12 cm, sont simples, ascendantes ; les feuilles sont un peu épaisses, oblongues ou linéaires-spatulées, obtuses, entières ou à une ou deux dents de chaque côté au sommet[1].
-Appareil reproducteur
-Les fleurs sont roses ou blanches ; les pétales sont obovales ; la grappe fructifère est courte, en corymbe dense, à pédicelles dressés-étalés ; les silicules sont ovales-arrondies, à échancrure étroite, aiguë, à lobes subobtus, divergents ; le style est un peu plus long que les lobes. La floraison a lieu de juillet à août[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ibéris charnu est une plante vivace, plus ou moins ciliée ; les tiges, de 4 à 12 cm, sont simples, ascendantes ; les feuilles sont un peu épaisses, oblongues ou linéaires-spatulées, obtuses, entières ou à une ou deux dents de chaque côté au sommet.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat, écologie et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Ibéris charnu se concentre en France sur les éboulis des Pyrénées occidentales[2]. Son aire de répartition recouvre la région méditerranéenne, principalement la Péninsule ibérique[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont roses ou blanches ; les pétales sont obovales ; la grappe fructifère est courte, en corymbe dense, à pédicelles dressés-étalés ; les silicules sont ovales-arrondies, à échancrure étroite, aiguë, à lobes subobtus, divergents ; le style est un peu plus long que les lobes. La floraison a lieu de juillet à août.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » et est inscrite sur la Liste rouge de la flore vasculaire de Midi-Pyrénées[2].
+          <t>Habitat, écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ibéris charnu se concentre en France sur les éboulis des Pyrénées occidentales. Son aire de répartition recouvre la région méditerranéenne, principalement la Péninsule ibérique.
 </t>
         </is>
       </c>
@@ -605,20 +628,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » et est inscrite sur la Liste rouge de la flore vasculaire de Midi-Pyrénées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iberis_carnosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iberis_carnosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-Iberis carnosa subsp. carnosa
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Iberis carnosa subsp. carnosa
 Iberis carnosa subsp. embergeri (Serve) Moreno
 Iberis carnosa subsp. granatensis (Boiss. &amp; Reut.) Moreno
-Iberis carnosa subsp. lagascana (DC.) Mateo &amp; Figuerola[4]
-Synonymes
-Iberis gastoni Delacr.
+Iberis carnosa subsp. lagascana (DC.) Mateo &amp; Figuerola</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iberis_carnosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iberis_carnosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Iberis gastoni Delacr.
 Iberis grosmiquelii Pau &amp; Font Quer
-Iberis linifolia subsp. grosmiquelii (Pau &amp; Font Quer) Maire[4],[5]</t>
+Iberis linifolia subsp. grosmiquelii (Pau &amp; Font Quer) Maire,</t>
         </is>
       </c>
     </row>
